--- a/data/Data Attribute Description File.xlsx
+++ b/data/Data Attribute Description File.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\olist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61D9AF0-8E0E-4A91-B327-733FFF1579AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A8DD3-E149-45EB-BD1F-A4C8D91AA4ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Attributes Initial Load" sheetId="1" r:id="rId1"/>
     <sheet name="Missing Data Pass 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>order_id</t>
   </si>
@@ -166,12 +166,6 @@
     <t>review_answer_timestamp</t>
   </si>
   <si>
-    <t>purchase_wk_day</t>
-  </si>
-  <si>
-    <t>purchase_month</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
     <t>number of payment methods used by the customer</t>
   </si>
   <si>
-    <t>method of payment by customer</t>
-  </si>
-  <si>
     <t>number of payment installments by customer</t>
   </si>
   <si>
@@ -247,36 +238,18 @@
     <t>comment titles from the review left by the customer</t>
   </si>
   <si>
-    <t>comment message from the review left by the customer</t>
-  </si>
-  <si>
     <t>date satisfaction survey sent to customer</t>
   </si>
   <si>
     <t>satisfaction survey answer timestamp</t>
   </si>
   <si>
-    <t>weekday name purchase was initiated</t>
-  </si>
-  <si>
-    <t>month name purchase was initiated</t>
-  </si>
-  <si>
     <t>order status, 7-levels (shipped, canceled, invoiced, processing, approved, unavailable, delivered)</t>
   </si>
   <si>
     <t>purchase initiation timestamp</t>
   </si>
   <si>
-    <t>payment approval timestamp</t>
-  </si>
-  <si>
-    <t>order posting timestamp when it was handed to the logistic partner</t>
-  </si>
-  <si>
-    <t>actual order delivery date to the customer</t>
-  </si>
-  <si>
     <t>estimated delivery date provided to the customer at the time of purchase initiation</t>
   </si>
   <si>
@@ -308,13 +281,46 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>method of payment by customer [74% credit_card, 19% boleto, 7% other]</t>
+  </si>
+  <si>
+    <t>comment message from the review left by the customer [note: 58% missing]</t>
+  </si>
+  <si>
+    <t>Missing Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order posting timestamp when it was handed to the logistic partner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual order delivery date to the customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2% = 1,783</t>
+  </si>
+  <si>
+    <t>3% = 2,965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2% = 610 </t>
+  </si>
+  <si>
+    <t>88% = 88.3K</t>
+  </si>
+  <si>
+    <t>58%=58.2k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment approval timestamp </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +348,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -363,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -371,6 +385,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,31 +707,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C5B58-AB22-460E-901C-01A059B8C06B}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="A1:C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -718,10 +743,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -729,10 +757,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,10 +771,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -751,10 +785,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -762,10 +799,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -773,10 +813,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -784,10 +827,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -795,10 +841,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -806,10 +855,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -817,10 +869,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -828,10 +883,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -839,10 +897,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -850,10 +911,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -861,10 +925,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -872,10 +939,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -883,10 +953,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -894,10 +967,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -905,10 +981,13 @@
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -916,10 +995,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -927,10 +1009,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -938,10 +1023,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -949,10 +1037,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -960,10 +1051,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -971,10 +1065,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -982,10 +1079,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -993,10 +1093,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1004,10 +1107,13 @@
         <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1015,10 +1121,13 @@
         <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1026,10 +1135,13 @@
         <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1037,10 +1149,13 @@
         <v>19</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1048,10 +1163,13 @@
         <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1059,10 +1177,13 @@
         <v>19</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1070,10 +1191,13 @@
         <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1081,10 +1205,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1092,10 +1219,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -1103,10 +1233,13 @@
         <v>19</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -1114,10 +1247,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -1125,10 +1261,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -1136,10 +1275,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -1147,30 +1289,21 @@
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1182,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDC8B4F-7E0E-4857-BD15-EE4ECD2786DD}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
@@ -1193,10 +1326,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/Data Attribute Description File.xlsx
+++ b/data/Data Attribute Description File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\olist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A8DD3-E149-45EB-BD1F-A4C8D91AA4ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923F805E-3B33-4B4B-BD3A-AF22E545E16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
   <si>
     <t>order_id</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">payment approval timestamp </t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -707,603 +710,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C5B58-AB22-460E-901C-01A059B8C06B}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
       <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
       <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Data Attribute Description File.xlsx
+++ b/data/Data Attribute Description File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\olist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923F805E-3B33-4B4B-BD3A-AF22E545E16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE53A6B0-9E42-48AF-ACA7-28F66DBECDB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes Initial Load" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>order_id</t>
   </si>
@@ -169,12 +169,6 @@
     <t>attribute</t>
   </si>
   <si>
-    <t>value_type</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>key to the orders dataset - each order has a unique customer_id</t>
   </si>
   <si>
@@ -317,6 +311,15 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Value_type</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -360,12 +363,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -380,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -389,11 +398,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,36 +735,37 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>84</v>
+      <c r="D1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -752,14 +775,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="4">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -769,14 +792,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="4">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -786,14 +809,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="4">
+        <v>67</v>
+      </c>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -803,31 +826,31 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="4">
+        <v>68</v>
+      </c>
+      <c r="E5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="10">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -837,14 +860,14 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -854,14 +877,14 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -871,14 +894,14 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="4">
+        <v>69</v>
+      </c>
+      <c r="E9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -888,14 +911,14 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -905,14 +928,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="4">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -922,14 +945,14 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -939,14 +962,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="4">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -956,14 +979,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -973,14 +996,14 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="4">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -990,14 +1013,14 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="4">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1007,14 +1030,14 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="4">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1024,14 +1047,14 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="4">
+        <v>58</v>
+      </c>
+      <c r="E18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1041,14 +1064,14 @@
         <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="4">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1058,14 +1081,14 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="4">
+        <v>60</v>
+      </c>
+      <c r="E20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1075,14 +1098,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="4">
+        <v>80</v>
+      </c>
+      <c r="E21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1092,14 +1115,14 @@
         <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="4">
+        <v>61</v>
+      </c>
+      <c r="E22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1109,14 +1132,14 @@
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="4">
+        <v>62</v>
+      </c>
+      <c r="E23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1126,14 +1149,14 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="4">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1143,14 +1166,14 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1160,14 +1183,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="4">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1177,14 +1200,14 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1194,14 +1217,14 @@
         <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1211,14 +1234,14 @@
         <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1228,14 +1251,14 @@
         <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1245,14 +1268,14 @@
         <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="4">
+        <v>74</v>
+      </c>
+      <c r="E31" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1262,14 +1285,14 @@
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="4">
+        <v>77</v>
+      </c>
+      <c r="E32" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1279,14 +1302,14 @@
         <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="4">
+        <v>75</v>
+      </c>
+      <c r="E33" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1296,31 +1319,31 @@
         <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>89</v>
+      <c r="E35" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1330,14 +1353,14 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="4">
+        <v>55</v>
+      </c>
+      <c r="E36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1347,14 +1370,14 @@
         <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="4">
+        <v>63</v>
+      </c>
+      <c r="E37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1364,14 +1387,14 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1381,14 +1404,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1398,14 +1421,14 @@
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="4">
+        <v>65</v>
+      </c>
+      <c r="E40" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1415,9 +1438,9 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="4">
+        <v>66</v>
+      </c>
+      <c r="E41" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1455,7 +1478,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/Data Attribute Description File.xlsx
+++ b/data/Data Attribute Description File.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\olist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE53A6B0-9E42-48AF-ACA7-28F66DBECDB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4997E18E-C414-420B-B6BC-DE726D7CECBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Attributes Initial Load" sheetId="1" r:id="rId1"/>
-    <sheet name="Missing Data Pass 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Merge" sheetId="3" r:id="rId1"/>
+    <sheet name="Attributes Initial Load" sheetId="1" r:id="rId2"/>
+    <sheet name="Missing Data Pass 1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="124">
   <si>
     <t>order_id</t>
   </si>
@@ -320,13 +322,103 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>order items</t>
+  </si>
+  <si>
+    <t>order payments</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>geolocation</t>
+  </si>
+  <si>
+    <t>order reviews</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>sellers</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>duplicate keys</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>zip_code_prefix</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>payments</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>products+eng translations</t>
+  </si>
+  <si>
+    <t>---then combine and merge with whole</t>
+  </si>
+  <si>
+    <t>merge order</t>
+  </si>
+  <si>
+    <t>note: need to impute 2 values</t>
+  </si>
+  <si>
+    <t>customers+geolocation</t>
+  </si>
+  <si>
+    <t>sellers+geolocation</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>non-null</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>int64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +454,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -386,10 +499,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -418,8 +532,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,6 +553,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Data Schema">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C41A90E-0786-433E-94FD-A137599BA728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2305049" y="229021"/>
+          <a:ext cx="9448799" cy="5686003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,11 +917,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBC4781-96AC-442B-A8C8-DEBA856FA779}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="16">
+        <v>99441</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1000163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="16">
+        <v>112650</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>B4-B7</f>
+        <v>13209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="16">
+        <v>103886</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5-B2</f>
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="16">
+        <v>100000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="16">
+        <v>99441</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="16">
+        <v>32951</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>559+B2</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>15083733</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C5B58-AB22-460E-901C-01A059B8C06B}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +1140,7 @@
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1036,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1052,8 +1448,9 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1070,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1087,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1104,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1121,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1138,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1155,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1172,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1189,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1206,7 +1603,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1223,7 +1620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -1240,7 +1637,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -1257,7 +1654,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -1274,7 +1671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -1460,7 +1857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDC8B4F-7E0E-4857-BD15-EE4ECD2786DD}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1557,4 +1954,1111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7257E28C-A4CB-4D7E-8AC1-34D45E3E0C74}">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>118315</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="b">
+        <f>B1=D1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>118315</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="b">
+        <f t="shared" ref="H2:H40" si="0">B2=D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>118315</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>118315</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>118315</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>118315</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>118300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>117061</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>115727</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>118315</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>118315</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>118315</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>118315</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>118315</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>118315</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>118315</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>118315</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>118315</v>
+      </c>
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>118315</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>116606</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>116606</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>116606</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>118295</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>118315</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>118295</v>
+      </c>
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>116606</v>
+      </c>
+      <c r="F26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>116606</v>
+      </c>
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>118295</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>118295</v>
+      </c>
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30">
+        <v>118315</v>
+      </c>
+      <c r="F30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>50665</v>
+      </c>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>14089</v>
+      </c>
+      <c r="F32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>118315</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>118315</v>
+      </c>
+      <c r="F34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>118315</v>
+      </c>
+      <c r="F35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>118315</v>
+      </c>
+      <c r="F36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>118315</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>118315</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>118315</v>
+      </c>
+      <c r="F39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <v>118315</v>
+      </c>
+      <c r="F40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:G43">
+    <sortCondition ref="D1:D43"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Data Attribute Description File.xlsx
+++ b/data/Data Attribute Description File.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\olist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4997E18E-C414-420B-B6BC-DE726D7CECBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE00D8-6BC8-4F64-B727-E9A7CDAB1616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge" sheetId="3" r:id="rId1"/>
     <sheet name="Attributes Initial Load" sheetId="1" r:id="rId2"/>
     <sheet name="Missing Data Pass 1" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Column Names" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
   <si>
     <t>order_id</t>
   </si>
@@ -333,21 +333,12 @@
     <t>customer</t>
   </si>
   <si>
-    <t>order items</t>
-  </si>
-  <si>
-    <t>order payments</t>
-  </si>
-  <si>
     <t>orders</t>
   </si>
   <si>
     <t>geolocation</t>
   </si>
   <si>
-    <t>order reviews</t>
-  </si>
-  <si>
     <t>products</t>
   </si>
   <si>
@@ -387,9 +378,6 @@
     <t>note: need to impute 2 values</t>
   </si>
   <si>
-    <t>customers+geolocation</t>
-  </si>
-  <si>
     <t>sellers+geolocation</t>
   </si>
   <si>
@@ -409,6 +397,33 @@
   </si>
   <si>
     <t>int64</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>inner</t>
+  </si>
+  <si>
+    <t>customers + orders</t>
+  </si>
+  <si>
+    <t>olist + reviews</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>olist + payments</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>olist + items</t>
+  </si>
+  <si>
+    <t>product_category_english</t>
   </si>
 </sst>
 </file>
@@ -918,15 +933,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBC4781-96AC-442B-A8C8-DEBA856FA779}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -940,10 +955,10 @@
         <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,18 +977,18 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="16">
         <v>1000163</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B4" s="16">
         <v>112650</v>
@@ -988,7 +1003,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B5" s="16">
         <v>103886</v>
@@ -1003,7 +1018,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B6" s="16">
         <v>100000</v>
@@ -1017,7 +1032,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="16">
         <v>99441</v>
@@ -1031,7 +1046,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B8" s="16">
         <v>32951</v>
@@ -1042,7 +1057,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" s="16">
         <v>3095</v>
@@ -1050,7 +1065,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" s="16">
         <v>71</v>
@@ -1064,54 +1079,70 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>111</v>
+      <c r="B22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>113</v>
+      <c r="A23" t="s">
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <v>15083733</v>
       </c>
     </row>
@@ -1129,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C5B58-AB22-460E-901C-01A059B8C06B}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1958,18 +1989,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7257E28C-A4CB-4D7E-8AC1-34D45E3E0C74}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
@@ -1977,25 +2008,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H1" t="b">
         <f>B1=D1</f>
@@ -2004,120 +2035,120 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H2" t="b">
-        <f t="shared" ref="H2:H40" si="0">B2=D2</f>
+        <f>B2=D2</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H3" t="b">
-        <f t="shared" si="0"/>
+        <f>B3=D3</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H4" t="b">
-        <f t="shared" si="0"/>
+        <f>B4=D4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H5" t="b">
-        <f t="shared" si="0"/>
+        <f>B5=D5</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>27</v>
       </c>
       <c r="D6" t="s">
@@ -2127,78 +2158,78 @@
         <v>118315</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="b">
-        <f t="shared" si="0"/>
+        <f>B6=D6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>118300</v>
+        <v>118971</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H7" t="b">
-        <f t="shared" si="0"/>
+        <f>B7=D7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>117061</v>
+        <v>117062</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H8" t="b">
-        <f t="shared" si="0"/>
+        <f>B8=D8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" t="s">
@@ -2208,78 +2239,78 @@
         <v>115727</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H9" t="b">
-        <f t="shared" si="0"/>
+        <f>B9=D9</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H10" t="b">
-        <f t="shared" si="0"/>
+        <f>B10=D10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H11" t="b">
-        <f t="shared" si="0"/>
+        <f>B11=D11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>22</v>
       </c>
       <c r="D12" t="s">
@@ -2289,186 +2320,186 @@
         <v>118315</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H12" t="b">
-        <f t="shared" si="0"/>
+        <f>B12=D12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H13" t="b">
-        <f t="shared" si="0"/>
+        <f>B13=D13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H14" t="b">
-        <f t="shared" si="0"/>
+        <f>B14=D14</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H15" t="b">
-        <f t="shared" si="0"/>
+        <f>B15=D15</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H16" t="b">
-        <f t="shared" si="0"/>
+        <f>B16=D16</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H17" t="b">
-        <f t="shared" si="0"/>
+        <f>B17=D17</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18" t="b">
-        <f t="shared" si="0"/>
+        <f>B18=D18</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>26</v>
       </c>
       <c r="D19" t="s">
@@ -2478,587 +2509,561 @@
         <v>118315</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
       <c r="H19" t="b">
-        <f t="shared" si="0"/>
+        <f>B19=D19</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20">
-        <v>28</v>
+        <v>128</v>
+      </c>
+      <c r="C20" s="1">
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="E20">
         <v>116606</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H20" t="b">
-        <f t="shared" si="0"/>
+        <f>B20=D20</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>116606</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="H21" t="b">
-        <f t="shared" si="0"/>
+        <f>B21=D21</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>116606</v>
+        <v>118295</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="b">
-        <f t="shared" si="0"/>
+        <f>B22=D22</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>118315</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
         <v>118</v>
       </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23">
-        <v>118295</v>
-      </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
       <c r="H23" t="b">
-        <f t="shared" si="0"/>
+        <f>B23=D23</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="C24" s="1">
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E24">
-        <v>118315</v>
+        <v>118295</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="H24" t="b">
-        <f t="shared" si="0"/>
+        <f>B24=D24</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>118295</v>
+        <v>116606</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25" t="b">
-        <f t="shared" si="0"/>
+        <f>B25=D25</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>116606</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
       </c>
       <c r="H26" t="b">
-        <f t="shared" si="0"/>
+        <f>B26=D26</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
         <v>31</v>
       </c>
-      <c r="C27">
-        <v>31</v>
-      </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>116606</v>
+        <v>118295</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
       </c>
       <c r="H27" t="b">
-        <f t="shared" si="0"/>
+        <f>B27=D27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>118295</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
       </c>
       <c r="H28" t="b">
-        <f t="shared" si="0"/>
+        <f>B28=D28</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>119148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
         <v>118</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29">
-        <v>118295</v>
-      </c>
-      <c r="F29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
       <c r="H29" t="b">
-        <f t="shared" si="0"/>
+        <f>B29=D29</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="1">
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>118315</v>
+        <v>51247</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H30" t="b">
-        <f t="shared" si="0"/>
+        <f>B30=D30</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>15</v>
+        <v>115</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1">
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>50665</v>
+        <v>14189</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H31" t="b">
-        <f t="shared" si="0"/>
+        <f>B31=D31</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32">
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32">
-        <v>14089</v>
+        <v>119148</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H32" t="b">
-        <f t="shared" si="0"/>
+        <f>B32=D32</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="C33" s="1">
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E33">
-        <v>118315</v>
+        <v>119148</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H33" t="b">
-        <f t="shared" si="0"/>
+        <f>B33=D33</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34">
+        <v>119148</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34">
-        <v>118315</v>
-      </c>
-      <c r="F34" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
-      </c>
       <c r="H34" t="b">
-        <f t="shared" si="0"/>
+        <f>B34=D34</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>13</v>
+        <v>115</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1">
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>118315</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H35" t="b">
-        <f t="shared" si="0"/>
+        <f>B35=D35</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36">
-        <v>38</v>
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1">
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>118315</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H36" t="b">
-        <f t="shared" si="0"/>
+        <f>B36=D36</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C37" s="1">
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>118315</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H37" t="b">
-        <f t="shared" si="0"/>
+        <f>B37=D37</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38">
-        <v>39</v>
+        <v>115</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>118315</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="H38" t="b">
-        <f t="shared" si="0"/>
+        <f>B38=D38</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1">
         <v>25</v>
       </c>
-      <c r="C39">
-        <v>37</v>
-      </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>118315</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H39" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40">
-        <v>118315</v>
-      </c>
-      <c r="F40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" t="s">
-        <v>122</v>
-      </c>
-      <c r="H40" t="b">
-        <f t="shared" si="0"/>
+        <f>B39=D39</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:G43">
-    <sortCondition ref="D1:D43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:G40">
+    <sortCondition ref="D1:D40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Data Attribute Description File.xlsx
+++ b/data/Data Attribute Description File.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\olist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE00D8-6BC8-4F64-B727-E9A7CDAB1616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0DBF0A-B873-4C53-A9BB-19740A9A1E29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge" sheetId="3" r:id="rId1"/>
     <sheet name="Attributes Initial Load" sheetId="1" r:id="rId2"/>
     <sheet name="Missing Data Pass 1" sheetId="2" r:id="rId3"/>
     <sheet name="Column Names" sheetId="4" r:id="rId4"/>
+    <sheet name="Olist_Variable_Descriptions" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="155">
   <si>
     <t>order_id</t>
   </si>
@@ -424,6 +425,84 @@
   </si>
   <si>
     <t>product_category_english</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>sao paulo</t>
+  </si>
+  <si>
+    <t>bed_bath_table</t>
+  </si>
+  <si>
+    <t>4a3ca9315b744ce9f8e9374361493884</t>
+  </si>
+  <si>
+    <t>aca2eb7d00ea1a7b8ebd4e68314663af</t>
+  </si>
+  <si>
+    <t>credit_card</t>
+  </si>
+  <si>
+    <t>Muito bom</t>
+  </si>
+  <si>
+    <t>Recomendo</t>
+  </si>
+  <si>
+    <t>eef5dbca8d37dfce6db7d7b16dd0525e</t>
+  </si>
+  <si>
+    <t>9a736b248f67d166d2fbb006bcb877c3</t>
+  </si>
+  <si>
+    <t>270c23a11d024a44c896d1894b261a83</t>
+  </si>
+  <si>
+    <t>895ab968e7bb0d5659d16cd74cd1650c</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>purchase_month</t>
+  </si>
+  <si>
+    <t>purchase_wk_day</t>
   </si>
 </sst>
 </file>
@@ -518,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -552,6 +631,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1991,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7257E28C-A4CB-4D7E-8AC1-34D45E3E0C74}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2114,7 @@
         <v>118</v>
       </c>
       <c r="H1" t="b">
-        <f>B1=D1</f>
+        <f t="shared" ref="H1:H39" si="0">B1=D1</f>
         <v>1</v>
       </c>
     </row>
@@ -2056,7 +2141,7 @@
         <v>118</v>
       </c>
       <c r="H2" t="b">
-        <f>B2=D2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2083,7 +2168,7 @@
         <v>118</v>
       </c>
       <c r="H3" t="b">
-        <f>B3=D3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2110,7 +2195,7 @@
         <v>118</v>
       </c>
       <c r="H4" t="b">
-        <f>B4=D4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2137,7 +2222,7 @@
         <v>119</v>
       </c>
       <c r="H5" t="b">
-        <f>B5=D5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2164,7 +2249,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="b">
-        <f>B6=D6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2191,7 +2276,7 @@
         <v>118</v>
       </c>
       <c r="H7" t="b">
-        <f>B7=D7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2218,7 +2303,7 @@
         <v>118</v>
       </c>
       <c r="H8" t="b">
-        <f>B8=D8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2245,7 +2330,7 @@
         <v>118</v>
       </c>
       <c r="H9" t="b">
-        <f>B9=D9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2272,7 +2357,7 @@
         <v>118</v>
       </c>
       <c r="H10" t="b">
-        <f>B10=D10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2299,7 +2384,7 @@
         <v>118</v>
       </c>
       <c r="H11" t="b">
-        <f>B11=D11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2326,7 +2411,7 @@
         <v>19</v>
       </c>
       <c r="H12" t="b">
-        <f>B12=D12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2353,7 +2438,7 @@
         <v>118</v>
       </c>
       <c r="H13" t="b">
-        <f>B13=D13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2380,7 +2465,7 @@
         <v>118</v>
       </c>
       <c r="H14" t="b">
-        <f>B14=D14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2407,7 +2492,7 @@
         <v>119</v>
       </c>
       <c r="H15" t="b">
-        <f>B15=D15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2434,7 +2519,7 @@
         <v>119</v>
       </c>
       <c r="H16" t="b">
-        <f>B16=D16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2461,7 +2546,7 @@
         <v>118</v>
       </c>
       <c r="H17" t="b">
-        <f>B17=D17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2488,7 +2573,7 @@
         <v>19</v>
       </c>
       <c r="H18" t="b">
-        <f>B18=D18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2515,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="H19" t="b">
-        <f>B19=D19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2542,7 +2627,7 @@
         <v>118</v>
       </c>
       <c r="H20" t="b">
-        <f>B20=D20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2569,7 +2654,7 @@
         <v>19</v>
       </c>
       <c r="H21" t="b">
-        <f>B21=D21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2596,7 +2681,7 @@
         <v>19</v>
       </c>
       <c r="H22" t="b">
-        <f>B22=D22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2623,7 +2708,7 @@
         <v>118</v>
       </c>
       <c r="H23" t="b">
-        <f>B23=D23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2650,7 +2735,7 @@
         <v>19</v>
       </c>
       <c r="H24" t="b">
-        <f>B24=D24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2677,7 +2762,7 @@
         <v>19</v>
       </c>
       <c r="H25" t="b">
-        <f>B25=D25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2704,7 +2789,7 @@
         <v>19</v>
       </c>
       <c r="H26" t="b">
-        <f>B26=D26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2731,7 +2816,7 @@
         <v>19</v>
       </c>
       <c r="H27" t="b">
-        <f>B27=D27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2758,7 +2843,7 @@
         <v>19</v>
       </c>
       <c r="H28" t="b">
-        <f>B28=D28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2785,7 +2870,7 @@
         <v>118</v>
       </c>
       <c r="H29" t="b">
-        <f>B29=D29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2812,7 +2897,7 @@
         <v>118</v>
       </c>
       <c r="H30" t="b">
-        <f>B30=D30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2839,7 +2924,7 @@
         <v>118</v>
       </c>
       <c r="H31" t="b">
-        <f>B31=D31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2866,7 +2951,7 @@
         <v>118</v>
       </c>
       <c r="H32" t="b">
-        <f>B32=D32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2893,7 +2978,7 @@
         <v>118</v>
       </c>
       <c r="H33" t="b">
-        <f>B33=D33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2920,7 +3005,7 @@
         <v>119</v>
       </c>
       <c r="H34" t="b">
-        <f>B34=D34</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2947,7 +3032,7 @@
         <v>118</v>
       </c>
       <c r="H35" t="b">
-        <f>B35=D35</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2974,7 +3059,7 @@
         <v>118</v>
       </c>
       <c r="H36" t="b">
-        <f>B36=D36</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3001,7 +3086,7 @@
         <v>118</v>
       </c>
       <c r="H37" t="b">
-        <f>B37=D37</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3028,7 +3113,7 @@
         <v>19</v>
       </c>
       <c r="H38" t="b">
-        <f>B38=D38</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3055,7 +3140,7 @@
         <v>118</v>
       </c>
       <c r="H39" t="b">
-        <f>B39=D39</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3066,4 +3151,936 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DF7814-38F0-41B9-A485-5DC01AD93DEF}">
+  <dimension ref="A1:AO14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AF28" sqref="AF28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="C2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="D2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="E2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="F2" s="5">
+        <v>114080</v>
+      </c>
+      <c r="G2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="H2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="I2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="J2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="K2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="L2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="M2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="N2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="O2" s="5">
+        <v>13667</v>
+      </c>
+      <c r="P2" s="5">
+        <v>48227</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="R2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="S2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="T2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="U2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="V2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="W2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="X2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>114081</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="5">
+        <v>95136</v>
+      </c>
+      <c r="C3" s="5">
+        <v>95136</v>
+      </c>
+      <c r="D3" s="5">
+        <v>94632</v>
+      </c>
+      <c r="E3" s="5">
+        <v>87132</v>
+      </c>
+      <c r="F3" s="5">
+        <v>78925</v>
+      </c>
+      <c r="G3" s="5">
+        <v>94348</v>
+      </c>
+      <c r="H3" s="5">
+        <v>444</v>
+      </c>
+      <c r="I3" s="5">
+        <v>92088</v>
+      </c>
+      <c r="J3" s="5">
+        <v>14844</v>
+      </c>
+      <c r="K3" s="5">
+        <v>4073</v>
+      </c>
+      <c r="L3" s="5">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5">
+        <v>94955</v>
+      </c>
+      <c r="O3" s="5">
+        <v>4409</v>
+      </c>
+      <c r="P3" s="5">
+        <v>34589</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>627</v>
+      </c>
+      <c r="R3" s="5">
+        <v>94808</v>
+      </c>
+      <c r="T3" s="5">
+        <v>4</v>
+      </c>
+      <c r="W3" s="5">
+        <v>21</v>
+      </c>
+      <c r="X3" s="5">
+        <v>31629</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>2914</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>90135</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>73</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>2136</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>588</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>22</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="18">
+        <v>42955.851747685185</v>
+      </c>
+      <c r="E4" s="18">
+        <v>42955.863553240742</v>
+      </c>
+      <c r="F4" s="18">
+        <v>42957.498773148145</v>
+      </c>
+      <c r="G4" s="18">
+        <v>42961.532152777778</v>
+      </c>
+      <c r="H4" s="18">
+        <v>43089</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="5">
+        <v>24220</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>43088</v>
+      </c>
+      <c r="R4" s="18">
+        <v>42964.929108796299</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="W4" s="5">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>42961.863553240742</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>14940</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="5">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5">
+        <v>63</v>
+      </c>
+      <c r="E5" s="5">
+        <v>63</v>
+      </c>
+      <c r="F5" s="5">
+        <v>63</v>
+      </c>
+      <c r="G5" s="5">
+        <v>63</v>
+      </c>
+      <c r="H5" s="5">
+        <v>644</v>
+      </c>
+      <c r="I5" s="5">
+        <v>75</v>
+      </c>
+      <c r="J5" s="5">
+        <v>152</v>
+      </c>
+      <c r="K5" s="5">
+        <v>18002</v>
+      </c>
+      <c r="L5" s="5">
+        <v>48124</v>
+      </c>
+      <c r="M5" s="5">
+        <v>63</v>
+      </c>
+      <c r="O5" s="5">
+        <v>492</v>
+      </c>
+      <c r="P5" s="5">
+        <v>253</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>526</v>
+      </c>
+      <c r="R5" s="5">
+        <v>63</v>
+      </c>
+      <c r="T5" s="5">
+        <v>84177</v>
+      </c>
+      <c r="W5" s="5">
+        <v>99874</v>
+      </c>
+      <c r="X5" s="5">
+        <v>529</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>2116</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>63</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>11816</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>8196</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>28431</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>81383</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>18551</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>12353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="18">
+        <v>42646.406134259261</v>
+      </c>
+      <c r="E6" s="18">
+        <v>42647.405231481483</v>
+      </c>
+      <c r="F6" s="18">
+        <v>42651.440289351849</v>
+      </c>
+      <c r="G6" s="18">
+        <v>42654.573981481481</v>
+      </c>
+      <c r="H6" s="18">
+        <v>42670</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>42658</v>
+      </c>
+      <c r="R6" s="18">
+        <v>42659.139085648145</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>42651.440289351849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="18">
+        <v>43341.625428240739</v>
+      </c>
+      <c r="E7" s="18">
+        <v>43341.632245370369</v>
+      </c>
+      <c r="F7" s="18">
+        <v>43354.825324074074</v>
+      </c>
+      <c r="G7" s="18">
+        <v>43390.557476851849</v>
+      </c>
+      <c r="H7" s="18">
+        <v>43398</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>43343</v>
+      </c>
+      <c r="R7" s="18">
+        <v>43402.519155092596</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>43930.941064814811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4.06724169668919</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1.09051463433875</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2.9462224209114498</v>
+      </c>
+      <c r="V8" s="5">
+        <v>172.14232527764699</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>120.017472585395</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>20.0102113410668</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>48.803411611048197</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>784.81423725247805</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>2.2063884432990499</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>2108.75804910546</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>30.289531122623298</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>16.606849519201202</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>23.1055828753254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1.35775778931876</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.68446333620384303</v>
+      </c>
+      <c r="U9" s="5">
+        <v>2.7816820201246699</v>
+      </c>
+      <c r="V9" s="5">
+        <v>266.11530624175703</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>182.399261654095</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>15.725962745097</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>10.0160557082775</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>650.54908681232496</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>1.71793297003821</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>3768.6925742180802</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>16.157507511201</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>13.439646076966</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>11.7398389617903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+      <c r="V11" s="5">
+        <v>60.95</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>39.9</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>13.08</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>42</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>345</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>300</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>18</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="5">
+        <v>5</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5">
+        <v>2</v>
+      </c>
+      <c r="V12" s="5">
+        <v>108.06</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>16.32</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>52</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>600</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>700</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>25</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>13</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N13" s="5">
+        <v>5</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
+        <v>4</v>
+      </c>
+      <c r="V13" s="5">
+        <v>189.37</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>133</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>21.19</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>57</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>983</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>1800</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>38</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>20</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" s="5">
+        <v>5</v>
+      </c>
+      <c r="S14" s="5">
+        <v>26</v>
+      </c>
+      <c r="U14" s="5">
+        <v>24</v>
+      </c>
+      <c r="V14" s="5">
+        <v>13664.08</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>6735</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>409.68</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>76</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>3992</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>20</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>40425</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>105</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>105</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Data Attribute Description File.xlsx
+++ b/data/Data Attribute Description File.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\olist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0DBF0A-B873-4C53-A9BB-19740A9A1E29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854A9DF4-AC9E-400E-A219-8A86A6476463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge" sheetId="3" r:id="rId1"/>
     <sheet name="Attributes Initial Load" sheetId="1" r:id="rId2"/>
-    <sheet name="Missing Data Pass 1" sheetId="2" r:id="rId3"/>
-    <sheet name="Column Names" sheetId="4" r:id="rId4"/>
-    <sheet name="Olist_Variable_Descriptions" sheetId="6" r:id="rId5"/>
+    <sheet name="First Pass Variables" sheetId="7" r:id="rId3"/>
+    <sheet name="Missing Data Pass 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Column Names" sheetId="4" r:id="rId5"/>
+    <sheet name="Olist_Variable_Descriptions" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="155">
   <si>
     <t>order_id</t>
   </si>
@@ -295,9 +297,6 @@
     <t xml:space="preserve">actual order delivery date to the customer </t>
   </si>
   <si>
-    <t xml:space="preserve"> 2% = 1,783</t>
-  </si>
-  <si>
     <t>3% = 2,965</t>
   </si>
   <si>
@@ -503,6 +502,9 @@
   </si>
   <si>
     <t>purchase_wk_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2% =1,783</t>
   </si>
 </sst>
 </file>
@@ -512,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,8 +571,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +595,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,33 +624,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -636,6 +642,34 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,23 +1068,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="16">
+      <c r="B2" s="7">
         <v>99441</v>
       </c>
       <c r="C2" t="s">
@@ -1061,21 +1095,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="A3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="7">
         <v>1000163</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="7">
         <v>112650</v>
       </c>
       <c r="C4" t="s">
@@ -1087,10 +1121,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="7">
         <v>103886</v>
       </c>
       <c r="C5" t="s">
@@ -1102,10 +1136,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="7">
         <v>100000</v>
       </c>
       <c r="C6" t="s">
@@ -1116,10 +1150,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="7">
         <v>99441</v>
       </c>
       <c r="C7" t="s">
@@ -1130,10 +1164,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="7">
         <v>32951</v>
       </c>
       <c r="C8" t="s">
@@ -1141,18 +1175,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="16">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="B10" s="7">
         <v>71</v>
       </c>
     </row>
@@ -1163,71 +1197,71 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>111</v>
+      <c r="A17" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
         <v>125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>110</v>
+      <c r="A22" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="6">
         <v>15083733</v>
       </c>
     </row>
@@ -1245,727 +1279,729 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C5B58-AB22-460E-901C-01A059B8C06B}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="39.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="12"/>
+    <col min="9" max="9" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="16">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>34</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>36</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>37</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>38</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>39</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>33</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1974,6 +2010,675 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0481CA7C-EE0B-4059-A31C-F0317448C6E1}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>114081</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>114081</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>114081</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>114081</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>114080</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>114081</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>114081</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>114081</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>114081</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>114081</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>114081</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>114081</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>114081</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>13667</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>48227</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>114081</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>114081</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>114081</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>114081</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>114081</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>114081</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>114081</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>114081</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>114081</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>114081</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>114081</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>114081</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>114081</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>114081</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>114081</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>114081</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>114081</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>114081</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>114081</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35">
+        <v>114081</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>114081</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>114081</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>114081</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDC8B4F-7E0E-4857-BD15-EE4ECD2786DD}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -2072,7 +2777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7257E28C-A4CB-4D7E-8AC1-34D45E3E0C74}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -2093,7 +2798,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -2108,10 +2813,10 @@
         <v>119148</v>
       </c>
       <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
       </c>
       <c r="H1" t="b">
         <f t="shared" ref="H1:H39" si="0">B1=D1</f>
@@ -2120,9 +2825,9 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1">
@@ -2135,10 +2840,10 @@
         <v>119148</v>
       </c>
       <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
         <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
       </c>
       <c r="H2" t="b">
         <f t="shared" si="0"/>
@@ -2147,7 +2852,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -2162,10 +2867,10 @@
         <v>119148</v>
       </c>
       <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
         <v>117</v>
-      </c>
-      <c r="G3" t="s">
-        <v>118</v>
       </c>
       <c r="H3" t="b">
         <f t="shared" si="0"/>
@@ -2174,7 +2879,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2189,10 +2894,10 @@
         <v>119148</v>
       </c>
       <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
         <v>117</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
       </c>
       <c r="H4" t="b">
         <f t="shared" si="0"/>
@@ -2201,9 +2906,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
@@ -2216,10 +2921,10 @@
         <v>119148</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" t="b">
         <f t="shared" si="0"/>
@@ -2228,7 +2933,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2243,7 +2948,7 @@
         <v>118315</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -2255,7 +2960,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2270,10 +2975,10 @@
         <v>118971</v>
       </c>
       <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
         <v>117</v>
-      </c>
-      <c r="G7" t="s">
-        <v>118</v>
       </c>
       <c r="H7" t="b">
         <f t="shared" si="0"/>
@@ -2282,7 +2987,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2297,10 +3002,10 @@
         <v>117062</v>
       </c>
       <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" t="s">
-        <v>118</v>
       </c>
       <c r="H8" t="b">
         <f t="shared" si="0"/>
@@ -2309,7 +3014,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2324,10 +3029,10 @@
         <v>115727</v>
       </c>
       <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
         <v>117</v>
-      </c>
-      <c r="G9" t="s">
-        <v>118</v>
       </c>
       <c r="H9" t="b">
         <f t="shared" si="0"/>
@@ -2336,7 +3041,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -2351,10 +3056,10 @@
         <v>119148</v>
       </c>
       <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
         <v>117</v>
-      </c>
-      <c r="G10" t="s">
-        <v>118</v>
       </c>
       <c r="H10" t="b">
         <f t="shared" si="0"/>
@@ -2363,7 +3068,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -2378,10 +3083,10 @@
         <v>119148</v>
       </c>
       <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
         <v>117</v>
-      </c>
-      <c r="G11" t="s">
-        <v>118</v>
       </c>
       <c r="H11" t="b">
         <f t="shared" si="0"/>
@@ -2390,9 +3095,9 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -2405,7 +3110,7 @@
         <v>118315</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -2417,7 +3122,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2432,10 +3137,10 @@
         <v>119148</v>
       </c>
       <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
         <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>118</v>
       </c>
       <c r="H13" t="b">
         <f t="shared" si="0"/>
@@ -2444,7 +3149,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2459,10 +3164,10 @@
         <v>119148</v>
       </c>
       <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
         <v>117</v>
-      </c>
-      <c r="G14" t="s">
-        <v>118</v>
       </c>
       <c r="H14" t="b">
         <f t="shared" si="0"/>
@@ -2471,7 +3176,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2486,10 +3191,10 @@
         <v>119148</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="0"/>
@@ -2498,7 +3203,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2513,10 +3218,10 @@
         <v>119148</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" t="b">
         <f t="shared" si="0"/>
@@ -2525,7 +3230,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2540,10 +3245,10 @@
         <v>119148</v>
       </c>
       <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" t="s">
-        <v>118</v>
       </c>
       <c r="H17" t="b">
         <f t="shared" si="0"/>
@@ -2552,7 +3257,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -2567,7 +3272,7 @@
         <v>119148</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -2579,7 +3284,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -2594,7 +3299,7 @@
         <v>118315</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -2606,25 +3311,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="1">
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20">
         <v>116606</v>
       </c>
       <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" t="s">
-        <v>118</v>
       </c>
       <c r="H20" t="b">
         <f t="shared" si="0"/>
@@ -2633,7 +3338,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -2648,7 +3353,7 @@
         <v>116606</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
@@ -2660,7 +3365,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -2675,7 +3380,7 @@
         <v>118295</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -2687,7 +3392,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2702,10 +3407,10 @@
         <v>118315</v>
       </c>
       <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
         <v>117</v>
-      </c>
-      <c r="G23" t="s">
-        <v>118</v>
       </c>
       <c r="H23" t="b">
         <f t="shared" si="0"/>
@@ -2714,7 +3419,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -2729,7 +3434,7 @@
         <v>118295</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
@@ -2741,7 +3446,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -2756,7 +3461,7 @@
         <v>116606</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
@@ -2768,7 +3473,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -2783,7 +3488,7 @@
         <v>116606</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
@@ -2795,7 +3500,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -2810,7 +3515,7 @@
         <v>118295</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
@@ -2822,7 +3527,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -2837,7 +3542,7 @@
         <v>118295</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2849,7 +3554,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -2864,10 +3569,10 @@
         <v>119148</v>
       </c>
       <c r="F29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" t="s">
         <v>117</v>
-      </c>
-      <c r="G29" t="s">
-        <v>118</v>
       </c>
       <c r="H29" t="b">
         <f t="shared" si="0"/>
@@ -2876,7 +3581,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
@@ -2891,10 +3596,10 @@
         <v>51247</v>
       </c>
       <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
         <v>117</v>
-      </c>
-      <c r="G30" t="s">
-        <v>118</v>
       </c>
       <c r="H30" t="b">
         <f t="shared" si="0"/>
@@ -2903,9 +3608,9 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="1">
@@ -2918,10 +3623,10 @@
         <v>14189</v>
       </c>
       <c r="F31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
         <v>117</v>
-      </c>
-      <c r="G31" t="s">
-        <v>118</v>
       </c>
       <c r="H31" t="b">
         <f t="shared" si="0"/>
@@ -2930,7 +3635,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -2945,10 +3650,10 @@
         <v>119148</v>
       </c>
       <c r="F32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" t="s">
         <v>117</v>
-      </c>
-      <c r="G32" t="s">
-        <v>118</v>
       </c>
       <c r="H32" t="b">
         <f t="shared" si="0"/>
@@ -2957,7 +3662,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -2972,10 +3677,10 @@
         <v>119148</v>
       </c>
       <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
         <v>117</v>
-      </c>
-      <c r="G33" t="s">
-        <v>118</v>
       </c>
       <c r="H33" t="b">
         <f t="shared" si="0"/>
@@ -2984,7 +3689,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
@@ -2999,10 +3704,10 @@
         <v>119148</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H34" t="b">
         <f t="shared" si="0"/>
@@ -3011,9 +3716,9 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="1">
@@ -3026,10 +3731,10 @@
         <v>118315</v>
       </c>
       <c r="F35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" t="s">
         <v>117</v>
-      </c>
-      <c r="G35" t="s">
-        <v>118</v>
       </c>
       <c r="H35" t="b">
         <f t="shared" si="0"/>
@@ -3038,7 +3743,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -3053,10 +3758,10 @@
         <v>118315</v>
       </c>
       <c r="F36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" t="s">
         <v>117</v>
-      </c>
-      <c r="G36" t="s">
-        <v>118</v>
       </c>
       <c r="H36" t="b">
         <f t="shared" si="0"/>
@@ -3065,7 +3770,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
@@ -3080,10 +3785,10 @@
         <v>118315</v>
       </c>
       <c r="F37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" t="s">
         <v>117</v>
-      </c>
-      <c r="G37" t="s">
-        <v>118</v>
       </c>
       <c r="H37" t="b">
         <f t="shared" si="0"/>
@@ -3092,9 +3797,9 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1">
@@ -3107,7 +3812,7 @@
         <v>118315</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
@@ -3119,7 +3824,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -3134,10 +3839,10 @@
         <v>118315</v>
       </c>
       <c r="F39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" t="s">
         <v>117</v>
-      </c>
-      <c r="G39" t="s">
-        <v>118</v>
       </c>
       <c r="H39" t="b">
         <f t="shared" si="0"/>
@@ -3153,934 +3858,1348 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DF7814-38F0-41B9-A485-5DC01AD93DEF}">
   <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF28" sqref="AF28"/>
+      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="C2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="D2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="E2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="F2" s="2">
+        <v>114080</v>
+      </c>
+      <c r="G2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="H2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="I2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="J2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="K2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="L2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="M2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="N2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13667</v>
+      </c>
+      <c r="P2" s="2">
+        <v>48227</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="R2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="S2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="T2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="U2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="V2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="W2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="X2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>114081</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2">
+        <v>95136</v>
+      </c>
+      <c r="C3" s="2">
+        <v>95136</v>
+      </c>
+      <c r="D3" s="2">
+        <v>94632</v>
+      </c>
+      <c r="E3" s="2">
+        <v>87132</v>
+      </c>
+      <c r="F3" s="2">
+        <v>78925</v>
+      </c>
+      <c r="G3" s="2">
+        <v>94348</v>
+      </c>
+      <c r="H3" s="2">
+        <v>444</v>
+      </c>
+      <c r="I3" s="2">
+        <v>92088</v>
+      </c>
+      <c r="J3" s="2">
+        <v>14844</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4073</v>
+      </c>
+      <c r="L3" s="2">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>94955</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4409</v>
+      </c>
+      <c r="P3" s="2">
+        <v>34589</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>627</v>
+      </c>
+      <c r="R3" s="2">
+        <v>94808</v>
+      </c>
+      <c r="T3" s="2">
+        <v>4</v>
+      </c>
+      <c r="W3" s="2">
+        <v>21</v>
+      </c>
+      <c r="X3" s="2">
+        <v>31629</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>2914</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>90135</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>2136</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="9">
+        <v>42955.851747685185</v>
+      </c>
+      <c r="E4" s="9">
+        <v>42955.863553240742</v>
+      </c>
+      <c r="F4" s="9">
+        <v>42957.498773148145</v>
+      </c>
+      <c r="G4" s="9">
+        <v>42961.532152777778</v>
+      </c>
+      <c r="H4" s="9">
+        <v>43089</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="2">
+        <v>24220</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>43088</v>
+      </c>
+      <c r="R4" s="9">
+        <v>42964.929108796299</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>42961.863553240742</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>14940</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="2">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2">
+        <v>644</v>
+      </c>
+      <c r="I5" s="2">
+        <v>75</v>
+      </c>
+      <c r="J5" s="2">
+        <v>152</v>
+      </c>
+      <c r="K5" s="2">
+        <v>18002</v>
+      </c>
+      <c r="L5" s="2">
+        <v>48124</v>
+      </c>
+      <c r="M5" s="2">
+        <v>63</v>
+      </c>
+      <c r="O5" s="2">
+        <v>492</v>
+      </c>
+      <c r="P5" s="2">
+        <v>253</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>526</v>
+      </c>
+      <c r="R5" s="2">
+        <v>63</v>
+      </c>
+      <c r="T5" s="2">
+        <v>84177</v>
+      </c>
+      <c r="W5" s="2">
+        <v>99874</v>
+      </c>
+      <c r="X5" s="2">
+        <v>529</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2116</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>11816</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>8196</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>28431</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>81383</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>18551</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>12353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="9">
+        <v>42646.406134259261</v>
+      </c>
+      <c r="E6" s="9">
+        <v>42647.405231481483</v>
+      </c>
+      <c r="F6" s="9">
+        <v>42651.440289351849</v>
+      </c>
+      <c r="G6" s="9">
+        <v>42654.573981481481</v>
+      </c>
+      <c r="H6" s="9">
+        <v>42670</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>42658</v>
+      </c>
+      <c r="R6" s="9">
+        <v>42659.139085648145</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>42651.440289351849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43341.625428240739</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43341.632245370369</v>
+      </c>
+      <c r="F7" s="9">
+        <v>43354.825324074074</v>
+      </c>
+      <c r="G7" s="9">
+        <v>43390.557476851849</v>
+      </c>
+      <c r="H7" s="9">
+        <v>43398</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>43343</v>
+      </c>
+      <c r="R7" s="9">
+        <v>43402.519155092596</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>43930.941064814811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4.06724169668919</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1.09051463433875</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2.9462224209114498</v>
+      </c>
+      <c r="V8" s="2">
+        <v>172.14232527764699</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>120.017472585395</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>20.0102113410668</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>48.803411611048197</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>784.81423725247805</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>2.2063884432990499</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>2108.75804910546</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>30.289531122623298</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>16.606849519201202</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>23.1055828753254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.35775778931876</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.68446333620384303</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2.7816820201246699</v>
+      </c>
+      <c r="V9" s="2">
+        <v>266.11530624175703</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>182.399261654095</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>15.725962745097</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>10.0160557082775</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>650.54908681232496</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1.71793297003821</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>3768.6925742180802</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>16.157507511201</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>13.439646076966</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>11.7398389617903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>60.95</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>13.08</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>345</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>18</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>108.06</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>16.32</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>600</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>700</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>25</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>13</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>4</v>
+      </c>
+      <c r="V13" s="2">
+        <v>189.37</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>21.19</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>57</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>983</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>1800</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="5" t="s">
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
+      <c r="S14" s="2">
         <v>26</v>
       </c>
-      <c r="AM1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="C2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="D2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="E2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="F2" s="5">
-        <v>114080</v>
-      </c>
-      <c r="G2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="H2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="I2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="J2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="K2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="L2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="M2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="N2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="O2" s="5">
-        <v>13667</v>
-      </c>
-      <c r="P2" s="5">
-        <v>48227</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="R2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="S2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="T2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="U2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="V2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="W2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="X2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AM2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AN2" s="5">
-        <v>114081</v>
-      </c>
-      <c r="AO2" s="5">
-        <v>114081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="5">
-        <v>95136</v>
-      </c>
-      <c r="C3" s="5">
-        <v>95136</v>
-      </c>
-      <c r="D3" s="5">
-        <v>94632</v>
-      </c>
-      <c r="E3" s="5">
-        <v>87132</v>
-      </c>
-      <c r="F3" s="5">
-        <v>78925</v>
-      </c>
-      <c r="G3" s="5">
-        <v>94348</v>
-      </c>
-      <c r="H3" s="5">
-        <v>444</v>
-      </c>
-      <c r="I3" s="5">
-        <v>92088</v>
-      </c>
-      <c r="J3" s="5">
-        <v>14844</v>
-      </c>
-      <c r="K3" s="5">
-        <v>4073</v>
-      </c>
-      <c r="L3" s="5">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5">
-        <v>94955</v>
-      </c>
-      <c r="O3" s="5">
-        <v>4409</v>
-      </c>
-      <c r="P3" s="5">
-        <v>34589</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>627</v>
-      </c>
-      <c r="R3" s="5">
-        <v>94808</v>
-      </c>
-      <c r="T3" s="5">
-        <v>4</v>
-      </c>
-      <c r="W3" s="5">
-        <v>21</v>
-      </c>
-      <c r="X3" s="5">
-        <v>31629</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>2914</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>90135</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>73</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>2136</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>588</v>
-      </c>
-      <c r="AM3" s="5">
-        <v>22</v>
-      </c>
-      <c r="AN3" s="5">
-        <v>7</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="18">
-        <v>42955.851747685185</v>
-      </c>
-      <c r="E4" s="18">
-        <v>42955.863553240742</v>
-      </c>
-      <c r="F4" s="18">
-        <v>42957.498773148145</v>
-      </c>
-      <c r="G4" s="18">
-        <v>42961.532152777778</v>
-      </c>
-      <c r="H4" s="18">
-        <v>43089</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="5">
-        <v>24220</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>43088</v>
-      </c>
-      <c r="R4" s="18">
-        <v>42964.929108796299</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W4" s="5">
-        <v>1</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>42961.863553240742</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>14940</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="5">
-        <v>63</v>
-      </c>
-      <c r="C5" s="5">
-        <v>63</v>
-      </c>
-      <c r="D5" s="5">
-        <v>63</v>
-      </c>
-      <c r="E5" s="5">
-        <v>63</v>
-      </c>
-      <c r="F5" s="5">
-        <v>63</v>
-      </c>
-      <c r="G5" s="5">
-        <v>63</v>
-      </c>
-      <c r="H5" s="5">
-        <v>644</v>
-      </c>
-      <c r="I5" s="5">
-        <v>75</v>
-      </c>
-      <c r="J5" s="5">
-        <v>152</v>
-      </c>
-      <c r="K5" s="5">
-        <v>18002</v>
-      </c>
-      <c r="L5" s="5">
-        <v>48124</v>
-      </c>
-      <c r="M5" s="5">
-        <v>63</v>
-      </c>
-      <c r="O5" s="5">
-        <v>492</v>
-      </c>
-      <c r="P5" s="5">
-        <v>253</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>526</v>
-      </c>
-      <c r="R5" s="5">
-        <v>63</v>
-      </c>
-      <c r="T5" s="5">
-        <v>84177</v>
-      </c>
-      <c r="W5" s="5">
-        <v>99874</v>
-      </c>
-      <c r="X5" s="5">
-        <v>529</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>2116</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>63</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>11816</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>8196</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>28431</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>81383</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>18551</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>12353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="18">
-        <v>42646.406134259261</v>
-      </c>
-      <c r="E6" s="18">
-        <v>42647.405231481483</v>
-      </c>
-      <c r="F6" s="18">
-        <v>42651.440289351849</v>
-      </c>
-      <c r="G6" s="18">
-        <v>42654.573981481481</v>
-      </c>
-      <c r="H6" s="18">
-        <v>42670</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>42658</v>
-      </c>
-      <c r="R6" s="18">
-        <v>42659.139085648145</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>42651.440289351849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="18">
-        <v>43341.625428240739</v>
-      </c>
-      <c r="E7" s="18">
-        <v>43341.632245370369</v>
-      </c>
-      <c r="F7" s="18">
-        <v>43354.825324074074</v>
-      </c>
-      <c r="G7" s="18">
-        <v>43390.557476851849</v>
-      </c>
-      <c r="H7" s="18">
-        <v>43398</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>43343</v>
-      </c>
-      <c r="R7" s="18">
-        <v>43402.519155092596</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>43930.941064814811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N8" s="5">
-        <v>4.06724169668919</v>
-      </c>
-      <c r="S8" s="5">
-        <v>1.09051463433875</v>
-      </c>
-      <c r="U8" s="5">
-        <v>2.9462224209114498</v>
-      </c>
-      <c r="V8" s="5">
-        <v>172.14232527764699</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>120.017472585395</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>20.0102113410668</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>48.803411611048197</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>784.81423725247805</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>2.2063884432990499</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>2108.75804910546</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>30.289531122623298</v>
-      </c>
-      <c r="AH8" s="5">
-        <v>16.606849519201202</v>
-      </c>
-      <c r="AI8" s="5">
-        <v>23.1055828753254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1.35775778931876</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0.68446333620384303</v>
-      </c>
-      <c r="U9" s="5">
-        <v>2.7816820201246699</v>
-      </c>
-      <c r="V9" s="5">
-        <v>266.11530624175703</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>182.399261654095</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>15.725962745097</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>10.0160557082775</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>650.54908681232496</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>1.71793297003821</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>3768.6925742180802</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>16.157507511201</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>13.439646076966</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>11.7398389617903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5">
-        <v>1</v>
-      </c>
-      <c r="U10" s="5">
-        <v>0</v>
-      </c>
-      <c r="V10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>7</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>2</v>
-      </c>
-      <c r="AI10" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="N11" s="5">
-        <v>4</v>
-      </c>
-      <c r="S11" s="5">
-        <v>1</v>
-      </c>
-      <c r="U11" s="5">
-        <v>1</v>
-      </c>
-      <c r="V11" s="5">
-        <v>60.95</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>39.9</v>
-      </c>
-      <c r="AB11" s="5">
-        <v>13.08</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>42</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>345</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>300</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>18</v>
-      </c>
-      <c r="AH11" s="5">
-        <v>8</v>
-      </c>
-      <c r="AI11" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="5">
-        <v>5</v>
-      </c>
-      <c r="S12" s="5">
-        <v>1</v>
-      </c>
-      <c r="U12" s="5">
-        <v>2</v>
-      </c>
-      <c r="V12" s="5">
-        <v>108.06</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="AB12" s="5">
-        <v>16.32</v>
-      </c>
-      <c r="AC12" s="5">
-        <v>52</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>600</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>700</v>
-      </c>
-      <c r="AG12" s="5">
-        <v>25</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>13</v>
-      </c>
-      <c r="AI12" s="5">
+      <c r="U14" s="2">
+        <v>24</v>
+      </c>
+      <c r="V14" s="2">
+        <v>13664.08</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>6735</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>409.68</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>3992</v>
+      </c>
+      <c r="AE14" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="N13" s="5">
-        <v>5</v>
-      </c>
-      <c r="S13" s="5">
-        <v>1</v>
-      </c>
-      <c r="U13" s="5">
-        <v>4</v>
-      </c>
-      <c r="V13" s="5">
-        <v>189.37</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>133</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>21.19</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>57</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>983</v>
-      </c>
-      <c r="AE13" s="5">
-        <v>3</v>
-      </c>
-      <c r="AF13" s="5">
-        <v>1800</v>
-      </c>
-      <c r="AG13" s="5">
-        <v>38</v>
-      </c>
-      <c r="AH13" s="5">
-        <v>20</v>
-      </c>
-      <c r="AI13" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" s="5">
-        <v>5</v>
-      </c>
-      <c r="S14" s="5">
-        <v>26</v>
-      </c>
-      <c r="U14" s="5">
-        <v>24</v>
-      </c>
-      <c r="V14" s="5">
-        <v>13664.08</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>6735</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>409.68</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>76</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>3992</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>20</v>
-      </c>
-      <c r="AF14" s="5">
+      <c r="AF14" s="2">
         <v>40425</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AG14" s="2">
         <v>105</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AH14" s="2">
         <v>105</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI14" s="2">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FC01CE-0370-4401-9BF9-A3CBD17F424C}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>66764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>101973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B52">
+    <sortCondition ref="B1:B52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Data Attribute Description File.xlsx
+++ b/data/Data Attribute Description File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\olist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854A9DF4-AC9E-400E-A219-8A86A6476463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D9D1C-1305-415B-8640-90803A747523}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="155">
   <si>
     <t>order_id</t>
   </si>
@@ -514,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,8 +584,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,8 +623,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -619,12 +638,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -637,9 +671,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,6 +701,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1279,729 +1334,729 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C5B58-AB22-460E-901C-01A059B8C06B}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="39.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="12"/>
-    <col min="9" max="9" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="39.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="11"/>
+    <col min="9" max="9" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17"/>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3860,23 +3915,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DF7814-38F0-41B9-A485-5DC01AD93DEF}">
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:Z155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34" style="2" bestFit="1" customWidth="1"/>
@@ -3914,879 +3965,1713 @@
     <col min="42" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C2" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D2" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="21">
+        <v>95136</v>
+      </c>
+      <c r="C3" s="21">
+        <v>95136</v>
+      </c>
+      <c r="D3" s="21">
+        <v>94632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="23">
+        <v>42955.851747685185</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="21">
+        <v>63</v>
+      </c>
+      <c r="C5" s="21">
+        <v>63</v>
+      </c>
+      <c r="D5" s="21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="23">
+        <v>42646.406134259261</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23">
+        <v>43341.625428240739</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C10" s="21">
+        <v>114080</v>
+      </c>
+      <c r="D10" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="21">
+        <v>87132</v>
+      </c>
+      <c r="C11" s="21">
+        <v>78925</v>
+      </c>
+      <c r="D11" s="21">
+        <v>94348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="23">
+        <v>42955.863553240742</v>
+      </c>
+      <c r="C12" s="23">
+        <v>42957.498773148145</v>
+      </c>
+      <c r="D12" s="23">
+        <v>42961.532152777778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="21">
+        <v>63</v>
+      </c>
+      <c r="C13" s="21">
+        <v>63</v>
+      </c>
+      <c r="D13" s="21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="23">
+        <v>42647.405231481483</v>
+      </c>
+      <c r="C14" s="23">
+        <v>42651.440289351849</v>
+      </c>
+      <c r="D14" s="23">
+        <v>42654.573981481481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="23">
+        <v>43341.632245370369</v>
+      </c>
+      <c r="C15" s="23">
+        <v>43354.825324074074</v>
+      </c>
+      <c r="D15" s="23">
+        <v>43390.557476851849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C17" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="D17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C18" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D18" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="21">
+        <v>444</v>
+      </c>
+      <c r="C19" s="21">
+        <v>92088</v>
+      </c>
+      <c r="D19" s="21">
+        <v>14844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="23">
+        <v>43089</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="21">
+        <v>24220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="21">
+        <v>644</v>
+      </c>
+      <c r="C21" s="21">
+        <v>75</v>
+      </c>
+      <c r="D21" s="21">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="23">
+        <v>42670</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="23">
+        <v>43398</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="C25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="D25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C26" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D26" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="21">
+        <v>4073</v>
+      </c>
+      <c r="C27" s="21">
+        <v>27</v>
+      </c>
+      <c r="D27" s="21">
+        <v>94955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="21">
+        <v>18002</v>
+      </c>
+      <c r="C29" s="21">
+        <v>48124</v>
+      </c>
+      <c r="D29" s="21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="C32" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="D32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C33" s="21">
+        <v>13667</v>
+      </c>
+      <c r="D33" s="21">
+        <v>48227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21">
+        <v>4409</v>
+      </c>
+      <c r="D34" s="21">
+        <v>34589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21">
+        <v>492</v>
+      </c>
+      <c r="D36" s="21">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="21">
+        <v>4.06724169668919</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="21">
+        <v>1.35775778931876</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="21">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="B42" s="21">
+        <v>4</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="B43" s="21">
+        <v>5</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="B44" s="21">
+        <v>5</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="21">
+        <v>5</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="C47" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="D47" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="2" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C48" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D48" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="21">
+        <v>627</v>
+      </c>
+      <c r="C49" s="21">
+        <v>94808</v>
+      </c>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="23">
+        <v>43088</v>
+      </c>
+      <c r="C50" s="23">
+        <v>42964.929108796299</v>
+      </c>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="21">
+        <v>526</v>
+      </c>
+      <c r="C51" s="21">
+        <v>63</v>
+      </c>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="23">
+        <v>42658</v>
+      </c>
+      <c r="C52" s="23">
+        <v>42659.139085648145</v>
+      </c>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="23">
+        <v>43343</v>
+      </c>
+      <c r="C53" s="23">
+        <v>43402.519155092596</v>
+      </c>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21">
+        <v>1.09051463433875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21">
+        <v>0.68446333620384303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="C62" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="D62" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="2" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C63" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D63" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="21">
+        <v>4</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="21">
+        <v>84177</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21">
+        <v>2.9462224209114498</v>
+      </c>
+      <c r="D69" s="21">
+        <v>172.14232527764699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21">
+        <v>2.7816820201246699</v>
+      </c>
+      <c r="D70" s="21">
+        <v>266.11530624175703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21">
+        <v>0</v>
+      </c>
+      <c r="D71" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21">
+        <v>1</v>
+      </c>
+      <c r="D72" s="21">
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21">
+        <v>2</v>
+      </c>
+      <c r="D73" s="21">
+        <v>108.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21">
+        <v>4</v>
+      </c>
+      <c r="D74" s="21">
+        <v>189.37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21">
+        <v>24</v>
+      </c>
+      <c r="D75" s="21">
+        <v>13664.08</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="C77" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="D77" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="2" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C78" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D78" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="21">
+        <v>21</v>
+      </c>
+      <c r="C79" s="21">
+        <v>31629</v>
+      </c>
+      <c r="D79" s="21">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="21">
+        <v>1</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="21">
+        <v>99874</v>
+      </c>
+      <c r="C81" s="21">
+        <v>529</v>
+      </c>
+      <c r="D81" s="21">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="C83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="D83" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="2" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C84" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D84" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="21">
+        <v>90135</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="23">
+        <v>42961.863553240742</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="21">
+        <v>63</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="23">
+        <v>42651.440289351849</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="23">
+        <v>43930.941064814811</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21">
+        <v>120.017472585395</v>
+      </c>
+      <c r="D90" s="21">
+        <v>20.0102113410668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21">
+        <v>182.399261654095</v>
+      </c>
+      <c r="D91" s="21">
+        <v>15.725962745097</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21">
+        <v>39.9</v>
+      </c>
+      <c r="D93" s="21">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D94" s="21">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21">
+        <v>133</v>
+      </c>
+      <c r="D95" s="21">
+        <v>21.19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21">
+        <v>6735</v>
+      </c>
+      <c r="D96" s="21">
+        <v>409.68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="C98" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="D98" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C99" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D99" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="21">
+        <v>48.803411611048197</v>
+      </c>
+      <c r="C105" s="21">
+        <v>784.81423725247805</v>
+      </c>
+      <c r="D105" s="21">
+        <v>2.2063884432990499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="21">
+        <v>10.0160557082775</v>
+      </c>
+      <c r="C106" s="21">
+        <v>650.54908681232496</v>
+      </c>
+      <c r="D106" s="21">
+        <v>1.71793297003821</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="21">
+        <v>5</v>
+      </c>
+      <c r="C107" s="21">
+        <v>4</v>
+      </c>
+      <c r="D107" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="B108" s="21">
+        <v>42</v>
+      </c>
+      <c r="C108" s="21">
+        <v>345</v>
+      </c>
+      <c r="D108" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="B109" s="21">
+        <v>52</v>
+      </c>
+      <c r="C109" s="21">
+        <v>600</v>
+      </c>
+      <c r="D109" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="B110" s="21">
+        <v>57</v>
+      </c>
+      <c r="C110" s="21">
+        <v>983</v>
+      </c>
+      <c r="D110" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" s="21">
+        <v>76</v>
+      </c>
+      <c r="C111" s="21">
+        <v>3992</v>
+      </c>
+      <c r="D111" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="B113" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="C113" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="D113" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C114" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D114" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="21">
+        <v>2108.75804910546</v>
+      </c>
+      <c r="C120" s="21">
+        <v>30.289531122623298</v>
+      </c>
+      <c r="D120" s="21">
+        <v>16.606849519201202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="21">
+        <v>3768.6925742180802</v>
+      </c>
+      <c r="C121" s="21">
+        <v>16.157507511201</v>
+      </c>
+      <c r="D121" s="21">
+        <v>13.439646076966</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" s="21">
+        <v>0</v>
+      </c>
+      <c r="C122" s="21">
+        <v>7</v>
+      </c>
+      <c r="D122" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="B123" s="21">
+        <v>300</v>
+      </c>
+      <c r="C123" s="21">
+        <v>18</v>
+      </c>
+      <c r="D123" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="B124" s="21">
+        <v>700</v>
+      </c>
+      <c r="C124" s="21">
+        <v>25</v>
+      </c>
+      <c r="D124" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="B125" s="21">
+        <v>1800</v>
+      </c>
+      <c r="C125" s="21">
+        <v>38</v>
+      </c>
+      <c r="D125" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="21">
+        <v>40425</v>
+      </c>
+      <c r="C126" s="21">
+        <v>105</v>
+      </c>
+      <c r="D126" s="21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="C128" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="D128" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="2" t="s">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C129" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D129" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21">
+        <v>73</v>
+      </c>
+      <c r="D130" s="21">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D131" s="21">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21">
+        <v>11816</v>
+      </c>
+      <c r="D132" s="21">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="21">
+        <v>23.1055828753254</v>
+      </c>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136" s="21">
+        <v>11.7398389617903</v>
+      </c>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" s="21">
+        <v>6</v>
+      </c>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="B138" s="21">
+        <v>15</v>
+      </c>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="B139" s="21">
+        <v>20</v>
+      </c>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="B140" s="21">
+        <v>30</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B141" s="21">
+        <v>118</v>
+      </c>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="27"/>
+      <c r="B143" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="C143" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="D143" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AO1" s="2" t="s">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" s="21">
+        <v>114081</v>
+      </c>
+      <c r="C144" s="21">
+        <v>114081</v>
+      </c>
+      <c r="D144" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" s="21">
+        <v>588</v>
+      </c>
+      <c r="C145" s="21">
+        <v>22</v>
+      </c>
+      <c r="D145" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B147" s="21">
+        <v>28431</v>
+      </c>
+      <c r="C147" s="21">
+        <v>81383</v>
+      </c>
+      <c r="D147" s="21">
+        <v>18551</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="21"/>
+      <c r="B149" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="C2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="D2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="E2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="F2" s="2">
-        <v>114080</v>
-      </c>
-      <c r="G2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="H2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="I2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="J2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="K2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="L2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="M2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="N2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="O2" s="2">
-        <v>13667</v>
-      </c>
-      <c r="P2" s="2">
-        <v>48227</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="R2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="S2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="T2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="U2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="V2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="W2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="X2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>114081</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>114081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B150" s="21">
+        <v>114081</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="2">
-        <v>95136</v>
-      </c>
-      <c r="C3" s="2">
-        <v>95136</v>
-      </c>
-      <c r="D3" s="2">
-        <v>94632</v>
-      </c>
-      <c r="E3" s="2">
-        <v>87132</v>
-      </c>
-      <c r="F3" s="2">
-        <v>78925</v>
-      </c>
-      <c r="G3" s="2">
-        <v>94348</v>
-      </c>
-      <c r="H3" s="2">
-        <v>444</v>
-      </c>
-      <c r="I3" s="2">
-        <v>92088</v>
-      </c>
-      <c r="J3" s="2">
-        <v>14844</v>
-      </c>
-      <c r="K3" s="2">
-        <v>4073</v>
-      </c>
-      <c r="L3" s="2">
-        <v>27</v>
-      </c>
-      <c r="M3" s="2">
-        <v>94955</v>
-      </c>
-      <c r="O3" s="2">
-        <v>4409</v>
-      </c>
-      <c r="P3" s="2">
-        <v>34589</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>627</v>
-      </c>
-      <c r="R3" s="2">
-        <v>94808</v>
-      </c>
-      <c r="T3" s="2">
-        <v>4</v>
-      </c>
-      <c r="W3" s="2">
-        <v>21</v>
-      </c>
-      <c r="X3" s="2">
-        <v>31629</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>2914</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>90135</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>2136</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>588</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>7</v>
-      </c>
-      <c r="AO3" s="2">
+      <c r="B151" s="21">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="9">
-        <v>42955.851747685185</v>
-      </c>
-      <c r="E4" s="9">
-        <v>42955.863553240742</v>
-      </c>
-      <c r="F4" s="9">
-        <v>42957.498773148145</v>
-      </c>
-      <c r="G4" s="9">
-        <v>42961.532152777778</v>
-      </c>
-      <c r="H4" s="9">
-        <v>43089</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" s="2">
-        <v>24220</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>43088</v>
-      </c>
-      <c r="R4" s="9">
-        <v>42964.929108796299</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>42961.863553240742</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>14940</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO4" s="2" t="s">
+      <c r="B152" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="2">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2">
-        <v>63</v>
-      </c>
-      <c r="D5" s="2">
-        <v>63</v>
-      </c>
-      <c r="E5" s="2">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2">
-        <v>63</v>
-      </c>
-      <c r="H5" s="2">
-        <v>644</v>
-      </c>
-      <c r="I5" s="2">
-        <v>75</v>
-      </c>
-      <c r="J5" s="2">
-        <v>152</v>
-      </c>
-      <c r="K5" s="2">
-        <v>18002</v>
-      </c>
-      <c r="L5" s="2">
-        <v>48124</v>
-      </c>
-      <c r="M5" s="2">
-        <v>63</v>
-      </c>
-      <c r="O5" s="2">
-        <v>492</v>
-      </c>
-      <c r="P5" s="2">
-        <v>253</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>526</v>
-      </c>
-      <c r="R5" s="2">
-        <v>63</v>
-      </c>
-      <c r="T5" s="2">
-        <v>84177</v>
-      </c>
-      <c r="W5" s="2">
-        <v>99874</v>
-      </c>
-      <c r="X5" s="2">
-        <v>529</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>2116</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>11816</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>8196</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>28431</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>81383</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>18551</v>
-      </c>
-      <c r="AO5" s="2">
+      <c r="B153" s="21">
         <v>12353</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="9">
-        <v>42646.406134259261</v>
-      </c>
-      <c r="E6" s="9">
-        <v>42647.405231481483</v>
-      </c>
-      <c r="F6" s="9">
-        <v>42651.440289351849</v>
-      </c>
-      <c r="G6" s="9">
-        <v>42654.573981481481</v>
-      </c>
-      <c r="H6" s="9">
-        <v>42670</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>42658</v>
-      </c>
-      <c r="R6" s="9">
-        <v>42659.139085648145</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>42651.440289351849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="9">
-        <v>43341.625428240739</v>
-      </c>
-      <c r="E7" s="9">
-        <v>43341.632245370369</v>
-      </c>
-      <c r="F7" s="9">
-        <v>43354.825324074074</v>
-      </c>
-      <c r="G7" s="9">
-        <v>43390.557476851849</v>
-      </c>
-      <c r="H7" s="9">
-        <v>43398</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>43343</v>
-      </c>
-      <c r="R7" s="9">
-        <v>43402.519155092596</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>43930.941064814811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="2">
-        <v>4.06724169668919</v>
-      </c>
-      <c r="S8" s="2">
-        <v>1.09051463433875</v>
-      </c>
-      <c r="U8" s="2">
-        <v>2.9462224209114498</v>
-      </c>
-      <c r="V8" s="2">
-        <v>172.14232527764699</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>120.017472585395</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>20.0102113410668</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>48.803411611048197</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>784.81423725247805</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>2.2063884432990499</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>2108.75804910546</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>30.289531122623298</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>16.606849519201202</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>23.1055828753254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1.35775778931876</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.68446333620384303</v>
-      </c>
-      <c r="U9" s="2">
-        <v>2.7816820201246699</v>
-      </c>
-      <c r="V9" s="2">
-        <v>266.11530624175703</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>182.399261654095</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>15.725962745097</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>10.0160557082775</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>650.54908681232496</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>1.71793297003821</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>3768.6925742180802</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>16.157507511201</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>13.439646076966</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>11.7398389617903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="N11" s="2">
-        <v>4</v>
-      </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1</v>
-      </c>
-      <c r="V11" s="2">
-        <v>60.95</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>39.9</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>13.08</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>345</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>300</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>18</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>8</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="2">
-        <v>5</v>
-      </c>
-      <c r="S12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>2</v>
-      </c>
-      <c r="V12" s="2">
-        <v>108.06</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>16.32</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>52</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>600</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>700</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>25</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>13</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="N13" s="2">
-        <v>5</v>
-      </c>
-      <c r="S13" s="2">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2">
-        <v>4</v>
-      </c>
-      <c r="V13" s="2">
-        <v>189.37</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>133</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>21.19</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>57</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>983</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>1800</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" s="2">
-        <v>5</v>
-      </c>
-      <c r="S14" s="2">
-        <v>26</v>
-      </c>
-      <c r="U14" s="2">
-        <v>24</v>
-      </c>
-      <c r="V14" s="2">
-        <v>13664.08</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>6735</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>409.68</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>3992</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>40425</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>105</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>105</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>118</v>
-      </c>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="28"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4810,8 +5695,8 @@
       <c r="B1">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4820,8 +5705,8 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4830,8 +5715,8 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -4840,8 +5725,8 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -4850,8 +5735,8 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4860,8 +5745,8 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4870,8 +5755,8 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -4880,8 +5765,8 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -4890,8 +5775,8 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4900,8 +5785,8 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -4910,8 +5795,8 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4920,8 +5805,8 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4930,8 +5815,8 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4940,8 +5825,8 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4950,8 +5835,8 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -4960,8 +5845,8 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -4970,8 +5855,8 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4980,8 +5865,8 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -4990,8 +5875,8 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -5000,8 +5885,8 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -5010,8 +5895,8 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -5020,8 +5905,8 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">

--- a/data/Data Attribute Description File.xlsx
+++ b/data/Data Attribute Description File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\olist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D9D1C-1305-415B-8640-90803A747523}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DE0551-E221-4D30-BEA7-A3607AA7D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{DE0F9616-EF0B-4A6C-BB48-F9C91E36FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Column Names" sheetId="4" r:id="rId5"/>
     <sheet name="Olist_Variable_Descriptions" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Categorize" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="161">
   <si>
     <t>order_id</t>
   </si>
@@ -505,6 +506,24 @@
   </si>
   <si>
     <t xml:space="preserve"> 2% =1,783</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Binary Class - Delivery</t>
+  </si>
+  <si>
+    <t>order_delivered_customer_date  &lt;= order_estimated_delivery_date</t>
+  </si>
+  <si>
+    <t>Early_On time</t>
+  </si>
+  <si>
+    <t>order_delivered_customer_date  &gt; order_estimated_delivery_date</t>
+  </si>
+  <si>
+    <t>Late</t>
   </si>
 </sst>
 </file>
@@ -630,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -653,12 +672,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -726,6 +754,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1335,7 +1364,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,7 +3946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DF7814-38F0-41B9-A485-5DC01AD93DEF}">
   <dimension ref="A1:Z155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -6087,4 +6116,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2048FE-5C1A-4E23-8C1A-50BB53582730}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>